--- a/data/case1/14/Qlm2_2.xlsx
+++ b/data/case1/14/Qlm2_2.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.27887626786323239</v>
+        <v>-0.17212692718101152</v>
       </c>
       <c r="B1" s="0">
-        <v>0.27810687603719231</v>
+        <v>0.17178198059662719</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.18483138553259071</v>
+        <v>-0.1141868407097153</v>
       </c>
       <c r="B2" s="0">
-        <v>0.18297581113632511</v>
+        <v>0.11339668917920509</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.13325606678280266</v>
+        <v>-0.063684109576040981</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13264524489844831</v>
+        <v>0.063544102191725571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.12464524496838791</v>
+        <v>-0.055544102234188486</v>
       </c>
       <c r="B4" s="0">
-        <v>0.12408821724346808</v>
+        <v>0.055434557598919909</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.12108821728564667</v>
+        <v>-0.099412236405023613</v>
       </c>
       <c r="B5" s="0">
-        <v>0.11918188550568232</v>
+        <v>0.098015769466182512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.019877749335789119</v>
+        <v>-0.052695471012532025</v>
       </c>
       <c r="B6" s="0">
-        <v>0.01971586336058273</v>
+        <v>0.052093980940645324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0097158634604728178</v>
+        <v>-0.042093981000257408</v>
       </c>
       <c r="B7" s="0">
-        <v>0.0096905542568732628</v>
+        <v>0.041942291428740397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.00030944564255719342</v>
+        <v>-0.03194229149052763</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.00032710635287802603</v>
+        <v>0.031657157480617482</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0023271063051031327</v>
+        <v>-0.029657157508625076</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0023354452562753814</v>
+        <v>0.02941759997664084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0043354452090511586</v>
+        <v>-0.027417600006662823</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0043349870698552451</v>
+        <v>0.027401476909778566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0073349870161072417</v>
+        <v>-0.024401476944639455</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0073348887197237644</v>
+        <v>0.024374415891500689</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.01077805658203479</v>
+        <v>-0.020874415929232004</v>
       </c>
       <c r="B12" s="0">
-        <v>0.010720220212277809</v>
+        <v>0.020675250434531112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0072202202707147833</v>
+        <v>-0.017175250474331882</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0072009321963122375</v>
+        <v>0.017084495788584952</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.00079906771541971011</v>
+        <v>-0.00908449584914095</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0008001065578771005</v>
+        <v>0.0090547995530263492</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0018001065156560969</v>
+        <v>-0.0080547995823536667</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.001800113595742836</v>
+        <v>0.0080356205135814207</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.017350189112553149</v>
+        <v>-0.0060356205477782865</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.017457544572138772</v>
+        <v>0.006003625841610738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040033738268290264</v>
+        <v>-0.0040036258761961818</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999408673048</v>
+        <v>0.003999999956245226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.054947142261262627</v>
+        <v>-0.016105902257415039</v>
       </c>
       <c r="B18" s="0">
-        <v>0.054854939686080684</v>
+        <v>0.016091685542281908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091737261801239</v>
+        <v>-0.01209168556103446</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016518449996738</v>
+        <v>0.012016774607611413</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080165184814529056</v>
+        <v>-0.0080167746276877949</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056406815938175</v>
+        <v>0.008005661366770056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056407133537419</v>
+        <v>-0.0040056613870742552</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999679745102</v>
+        <v>0.0039999999795261587</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045719744392077821</v>
+        <v>-0.045712579626080441</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045504238536728359</v>
+        <v>0.045499060643219735</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040504238584009755</v>
+        <v>-0.040499060672146037</v>
       </c>
       <c r="B23" s="0">
-        <v>0.04010002093107623</v>
+        <v>0.040099049529761288</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020100021080576624</v>
+        <v>-0.020099049628972132</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999848504757</v>
+        <v>0.019999999899435572</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097304136217157833</v>
+        <v>-0.043320298476842822</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0971769417849071</v>
+        <v>0.043304066955631271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094676941837464668</v>
+        <v>-0.070239130639169645</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094512763479508877</v>
+        <v>0.070140240261634901</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.09201276353519372</v>
+        <v>-0.067640240289138731</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091038128807449326</v>
+        <v>0.067069099611548832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089038128872149791</v>
+        <v>-0.065069099642643735</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088370883950994461</v>
+        <v>0.064689857745878321</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081370884057537118</v>
+        <v>-0.057689857803662647</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081177572417428401</v>
+        <v>0.057588916796777134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021177572876796891</v>
+        <v>0.0024110829046515292</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023731878977436</v>
+        <v>-0.0024667788476895325</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023731993404454</v>
+        <v>-0.049768870180074032</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000994809547862</v>
+        <v>0.049619232490785592</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040009949441337511</v>
+        <v>-0.039619232565467399</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999046465007</v>
+        <v>0.039507653281411592</v>
       </c>
     </row>
   </sheetData>
